--- a/curation_reaction_mapping.xlsx
+++ b/curation_reaction_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natjimenez/Library/Mobile Documents/com~apple~CloudDocs/work/eukaryo_methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2440C45E-1CCA-304C-B38C-E367CFF24354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF2C65-B258-5B40-AA81-A1BBE5BE38BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25580" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{8772781B-9312-644C-B78A-711472FEC862}"/>
+    <workbookView xWindow="-30500" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{8772781B-9312-644C-B78A-711472FEC862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19834,12 +19834,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -19854,13 +19860,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20197,8 +20205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD118BC1-99C0-9541-B5EB-5BB777603A4C}">
   <dimension ref="A1:D6566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1332" workbookViewId="0">
-      <selection activeCell="H1346" sqref="H1346"/>
+    <sheetView tabSelected="1" topLeftCell="A1198" workbookViewId="0">
+      <selection activeCell="A6566" sqref="A6566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31254,14 +31262,14 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="1353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1353" t="s">
+    <row r="1353" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1353" s="4" t="s">
         <v>5217</v>
       </c>
-      <c r="C1353" s="2" t="s">
-        <v>6582</v>
-      </c>
-      <c r="D1353" t="s">
+      <c r="C1353" s="5" t="s">
+        <v>6582</v>
+      </c>
+      <c r="D1353" s="4" t="s">
         <v>6590</v>
       </c>
     </row>
